--- a/db/Tablename.xlsx
+++ b/db/Tablename.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\htdocs\_g.ene.sys_prototype1_\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\htdocs\_g.ene.sys_api_\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,9 +13,11 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Sheet1 (2)'!$A$1:$C$40</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="103">
   <si>
     <t>Table Name</t>
   </si>
@@ -168,6 +170,174 @@
   </si>
   <si>
     <t>user_config</t>
+  </si>
+  <si>
+    <t>loginattempt</t>
+  </si>
+  <si>
+    <t>orgtype</t>
+  </si>
+  <si>
+    <t>role_menu</t>
+  </si>
+  <si>
+    <t>role_process</t>
+  </si>
+  <si>
+    <t>1country</t>
+  </si>
+  <si>
+    <t>2province</t>
+  </si>
+  <si>
+    <t>3city</t>
+  </si>
+  <si>
+    <t>4district</t>
+  </si>
+  <si>
+    <t>5village</t>
+  </si>
+  <si>
+    <t>s_</t>
+  </si>
+  <si>
+    <t>phd</t>
+  </si>
+  <si>
+    <t>dibuat topic-nya integrated dengan table dan document number</t>
+  </si>
+  <si>
+    <t>inquiry</t>
+  </si>
+  <si>
+    <t>inquiryline</t>
+  </si>
+  <si>
+    <t>rfq</t>
+  </si>
+  <si>
+    <t>rfqline</t>
+  </si>
+  <si>
+    <t>rfqresponse</t>
+  </si>
+  <si>
+    <t>rfqresponseline</t>
+  </si>
+  <si>
+    <t>quotation</t>
+  </si>
+  <si>
+    <t>quotationline</t>
+  </si>
+  <si>
+    <t>request</t>
+  </si>
+  <si>
+    <t>requestline</t>
+  </si>
+  <si>
+    <t>grf</t>
+  </si>
+  <si>
+    <t>phd response</t>
+  </si>
+  <si>
+    <t>requisition</t>
+  </si>
+  <si>
+    <t>requisitionline</t>
+  </si>
+  <si>
+    <t>pr</t>
+  </si>
+  <si>
+    <t>sales</t>
+  </si>
+  <si>
+    <t>salesline</t>
+  </si>
+  <si>
+    <t>purchase</t>
+  </si>
+  <si>
+    <t>purchaseline</t>
+  </si>
+  <si>
+    <t>p_</t>
+  </si>
+  <si>
+    <t>r_</t>
+  </si>
+  <si>
+    <t>m_</t>
+  </si>
+  <si>
+    <t>inout</t>
+  </si>
+  <si>
+    <t>inoutline</t>
+  </si>
+  <si>
+    <t>material receipt, shipment</t>
+  </si>
+  <si>
+    <t>movement</t>
+  </si>
+  <si>
+    <t>intra warehouse</t>
+  </si>
+  <si>
+    <t>distribution</t>
+  </si>
+  <si>
+    <t>inter warehouse</t>
+  </si>
+  <si>
+    <t>movementline</t>
+  </si>
+  <si>
+    <t>distributionline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">php artisan make:migration </t>
+  </si>
+  <si>
+    <t>create_</t>
+  </si>
+  <si>
+    <t>_table --create=</t>
+  </si>
+  <si>
+    <t>param1</t>
+  </si>
+  <si>
+    <t>param2</t>
+  </si>
+  <si>
+    <t>param3</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>dashboard</t>
+  </si>
+  <si>
+    <t>role_dashboard</t>
+  </si>
+  <si>
+    <t>chat</t>
+  </si>
+  <si>
+    <t>chatline</t>
+  </si>
+  <si>
+    <t>cm_</t>
+  </si>
+  <si>
+    <t>php artisan migrate --path=database/migrations/tmp</t>
   </si>
 </sst>
 </file>
@@ -183,7 +353,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -214,6 +384,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -227,12 +427,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,10 +718,1382 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="7.7109375" customWidth="1"/>
+    <col min="8" max="8" width="84.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" t="str">
+        <f>E2&amp;F2&amp;B2&amp;C2&amp;G2&amp;B2&amp;C2</f>
+        <v>php artisan make:migration create_a_client_table --create=a_client</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H3" t="str">
+        <f>E3&amp;F3&amp;B3&amp;C3&amp;G3&amp;B3&amp;C3</f>
+        <v>php artisan make:migration create_a_dashboard_table --create=a_dashboard</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H4" t="str">
+        <f>E4&amp;F4&amp;B4&amp;C4&amp;G4&amp;B4&amp;C4</f>
+        <v>php artisan make:migration create_a_loginattempt_table --create=a_loginattempt</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H5" t="str">
+        <f>E5&amp;F5&amp;B5&amp;C5&amp;G5&amp;B5&amp;C5</f>
+        <v>php artisan make:migration create_a_menu_table --create=a_menu</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H6" t="str">
+        <f>E6&amp;F6&amp;B6&amp;C6&amp;G6&amp;B6&amp;C6</f>
+        <v>php artisan make:migration create_a_org_table --create=a_org</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H7" t="str">
+        <f>E7&amp;F7&amp;B7&amp;C7&amp;G7&amp;B7&amp;C7</f>
+        <v>php artisan make:migration create_a_orgtype_table --create=a_orgtype</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H8" t="str">
+        <f>E8&amp;F8&amp;B8&amp;C8&amp;G8&amp;B8&amp;C8</f>
+        <v>php artisan make:migration create_a_role_table --create=a_role</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" t="s">
+        <v>92</v>
+      </c>
+      <c r="H9" t="str">
+        <f>E9&amp;F9&amp;B9&amp;C9&amp;G9&amp;B9&amp;C9</f>
+        <v>php artisan make:migration create_a_role_dashboard_table --create=a_role_dashboard</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" t="s">
+        <v>92</v>
+      </c>
+      <c r="H10" t="str">
+        <f>E10&amp;F10&amp;B10&amp;C10&amp;G10&amp;B10&amp;C10</f>
+        <v>php artisan make:migration create_a_role_menu_table --create=a_role_menu</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11" t="s">
+        <v>92</v>
+      </c>
+      <c r="H11" t="str">
+        <f>E11&amp;F11&amp;B11&amp;C11&amp;G11&amp;B11&amp;C11</f>
+        <v>php artisan make:migration create_a_role_process_table --create=a_role_process</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G12" t="s">
+        <v>92</v>
+      </c>
+      <c r="H12" t="str">
+        <f>E12&amp;F12&amp;B12&amp;C12&amp;G12&amp;B12&amp;C12</f>
+        <v>php artisan make:migration create_a_sequence_table --create=a_sequence</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" t="s">
+        <v>91</v>
+      </c>
+      <c r="G13" t="s">
+        <v>92</v>
+      </c>
+      <c r="H13" t="str">
+        <f>E13&amp;F13&amp;B13&amp;C13&amp;G13&amp;B13&amp;C13</f>
+        <v>php artisan make:migration create_a_sequence_no_table --create=a_sequence_no</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" t="s">
+        <v>92</v>
+      </c>
+      <c r="H14" t="str">
+        <f>E14&amp;F14&amp;B14&amp;C14&amp;G14&amp;B14&amp;C14</f>
+        <v>php artisan make:migration create_a_system_table --create=a_system</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" t="s">
+        <v>92</v>
+      </c>
+      <c r="H15" t="str">
+        <f>E15&amp;F15&amp;B15&amp;C15&amp;G15&amp;B15&amp;C15</f>
+        <v>php artisan make:migration create_a_user_table --create=a_user</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" t="s">
+        <v>92</v>
+      </c>
+      <c r="H16" t="str">
+        <f>E16&amp;F16&amp;B16&amp;C16&amp;G16&amp;B16&amp;C16</f>
+        <v>php artisan make:migration create_a_user_config_table --create=a_user_config</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17" t="s">
+        <v>92</v>
+      </c>
+      <c r="H17" t="str">
+        <f>E17&amp;F17&amp;B17&amp;C17&amp;G17&amp;B17&amp;C17</f>
+        <v>php artisan make:migration create_a_user_mail_table --create=a_user_mail</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" t="s">
+        <v>92</v>
+      </c>
+      <c r="H18" t="str">
+        <f>E18&amp;F18&amp;B18&amp;C18&amp;G18&amp;B18&amp;C18</f>
+        <v>php artisan make:migration create_a_user_org_table --create=a_user_org</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" t="s">
+        <v>91</v>
+      </c>
+      <c r="G19" t="s">
+        <v>92</v>
+      </c>
+      <c r="H19" t="str">
+        <f>E19&amp;F19&amp;B19&amp;C19&amp;G19&amp;B19&amp;C19</f>
+        <v>php artisan make:migration create_a_user_role_table --create=a_user_role</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" t="s">
+        <v>92</v>
+      </c>
+      <c r="H20" t="str">
+        <f>E20&amp;F20&amp;B20&amp;C20&amp;G20&amp;B20&amp;C20</f>
+        <v>php artisan make:migration create_a_user_substitute_table --create=a_user_substitute</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" t="s">
+        <v>92</v>
+      </c>
+      <c r="H21" t="str">
+        <f>E21&amp;F21&amp;B21&amp;C21&amp;G21&amp;B21&amp;C21</f>
+        <v>php artisan make:migration create_c_1country_table --create=c_1country</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" t="s">
+        <v>90</v>
+      </c>
+      <c r="F22" t="s">
+        <v>91</v>
+      </c>
+      <c r="G22" t="s">
+        <v>92</v>
+      </c>
+      <c r="H22" t="str">
+        <f>E22&amp;F22&amp;B22&amp;C22&amp;G22&amp;B22&amp;C22</f>
+        <v>php artisan make:migration create_c_2province_table --create=c_2province</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" t="s">
+        <v>90</v>
+      </c>
+      <c r="F23" t="s">
+        <v>91</v>
+      </c>
+      <c r="G23" t="s">
+        <v>92</v>
+      </c>
+      <c r="H23" t="str">
+        <f>E23&amp;F23&amp;B23&amp;C23&amp;G23&amp;B23&amp;C23</f>
+        <v>php artisan make:migration create_c_3city_table --create=c_3city</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24" t="s">
+        <v>91</v>
+      </c>
+      <c r="G24" t="s">
+        <v>92</v>
+      </c>
+      <c r="H24" t="str">
+        <f>E24&amp;F24&amp;B24&amp;C24&amp;G24&amp;B24&amp;C24</f>
+        <v>php artisan make:migration create_c_4district_table --create=c_4district</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" t="s">
+        <v>91</v>
+      </c>
+      <c r="G25" t="s">
+        <v>92</v>
+      </c>
+      <c r="H25" t="str">
+        <f>E25&amp;F25&amp;B25&amp;C25&amp;G25&amp;B25&amp;C25</f>
+        <v>php artisan make:migration create_c_5village_table --create=c_5village</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" t="s">
+        <v>90</v>
+      </c>
+      <c r="F26" t="s">
+        <v>91</v>
+      </c>
+      <c r="G26" t="s">
+        <v>92</v>
+      </c>
+      <c r="H26" t="str">
+        <f>E26&amp;F26&amp;B26&amp;C26&amp;G26&amp;B26&amp;C26</f>
+        <v>php artisan make:migration create_c_bpartner_table --create=c_bpartner</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27" t="s">
+        <v>91</v>
+      </c>
+      <c r="G27" t="s">
+        <v>92</v>
+      </c>
+      <c r="H27" t="str">
+        <f>E27&amp;F27&amp;B27&amp;C27&amp;G27&amp;B27&amp;C27</f>
+        <v>php artisan make:migration create_c_bpartner_location_table --create=c_bpartner_location</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28" t="s">
+        <v>91</v>
+      </c>
+      <c r="G28" t="s">
+        <v>92</v>
+      </c>
+      <c r="H28" t="str">
+        <f>E28&amp;F28&amp;B28&amp;C28&amp;G28&amp;B28&amp;C28</f>
+        <v>php artisan make:migration create_c_currency_table --create=c_currency</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" t="s">
+        <v>90</v>
+      </c>
+      <c r="F29" t="s">
+        <v>91</v>
+      </c>
+      <c r="G29" t="s">
+        <v>92</v>
+      </c>
+      <c r="H29" t="str">
+        <f>E29&amp;F29&amp;B29&amp;C29&amp;G29&amp;B29&amp;C29</f>
+        <v>php artisan make:migration create_c_currency_rates_table --create=c_currency_rates</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" t="s">
+        <v>90</v>
+      </c>
+      <c r="F30" t="s">
+        <v>91</v>
+      </c>
+      <c r="G30" t="s">
+        <v>92</v>
+      </c>
+      <c r="H30" t="str">
+        <f>E30&amp;F30&amp;B30&amp;C30&amp;G30&amp;B30&amp;C30</f>
+        <v>php artisan make:migration create_cm_chat_table --create=cm_chat</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E31" t="s">
+        <v>90</v>
+      </c>
+      <c r="F31" t="s">
+        <v>91</v>
+      </c>
+      <c r="G31" t="s">
+        <v>92</v>
+      </c>
+      <c r="H31" t="str">
+        <f>E31&amp;F31&amp;B31&amp;C31&amp;G31&amp;B31&amp;C31</f>
+        <v>php artisan make:migration create_cm_chatline_table --create=cm_chatline</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" t="s">
+        <v>90</v>
+      </c>
+      <c r="F32" t="s">
+        <v>91</v>
+      </c>
+      <c r="G32" t="s">
+        <v>92</v>
+      </c>
+      <c r="H32" t="str">
+        <f>E32&amp;F32&amp;B32&amp;C32&amp;G32&amp;B32&amp;C32</f>
+        <v>php artisan make:migration create_m_distribution_table --create=m_distribution</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" t="s">
+        <v>90</v>
+      </c>
+      <c r="F33" t="s">
+        <v>91</v>
+      </c>
+      <c r="G33" t="s">
+        <v>92</v>
+      </c>
+      <c r="H33" t="str">
+        <f>E33&amp;F33&amp;B33&amp;C33&amp;G33&amp;B33&amp;C33</f>
+        <v>php artisan make:migration create_m_distributionline_table --create=m_distributionline</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" t="s">
+        <v>83</v>
+      </c>
+      <c r="E34" t="s">
+        <v>90</v>
+      </c>
+      <c r="F34" t="s">
+        <v>91</v>
+      </c>
+      <c r="G34" t="s">
+        <v>92</v>
+      </c>
+      <c r="H34" t="str">
+        <f>E34&amp;F34&amp;B34&amp;C34&amp;G34&amp;B34&amp;C34</f>
+        <v>php artisan make:migration create_m_inout_table --create=m_inout</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35" t="s">
+        <v>90</v>
+      </c>
+      <c r="F35" t="s">
+        <v>91</v>
+      </c>
+      <c r="G35" t="s">
+        <v>92</v>
+      </c>
+      <c r="H35" t="str">
+        <f>E35&amp;F35&amp;B35&amp;C35&amp;G35&amp;B35&amp;C35</f>
+        <v>php artisan make:migration create_m_inoutline_table --create=m_inoutline</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" t="s">
+        <v>85</v>
+      </c>
+      <c r="E36" t="s">
+        <v>90</v>
+      </c>
+      <c r="F36" t="s">
+        <v>91</v>
+      </c>
+      <c r="G36" t="s">
+        <v>92</v>
+      </c>
+      <c r="H36" t="str">
+        <f>E36&amp;F36&amp;B36&amp;C36&amp;G36&amp;B36&amp;C36</f>
+        <v>php artisan make:migration create_m_movement_table --create=m_movement</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E37" t="s">
+        <v>90</v>
+      </c>
+      <c r="F37" t="s">
+        <v>91</v>
+      </c>
+      <c r="G37" t="s">
+        <v>92</v>
+      </c>
+      <c r="H37" t="str">
+        <f>E37&amp;F37&amp;B37&amp;C37&amp;G37&amp;B37&amp;C37</f>
+        <v>php artisan make:migration create_m_movementline_table --create=m_movementline</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38" t="s">
+        <v>73</v>
+      </c>
+      <c r="E38" t="s">
+        <v>90</v>
+      </c>
+      <c r="F38" t="s">
+        <v>91</v>
+      </c>
+      <c r="G38" t="s">
+        <v>92</v>
+      </c>
+      <c r="H38" t="str">
+        <f>E38&amp;F38&amp;B38&amp;C38&amp;G38&amp;B38&amp;C38</f>
+        <v>php artisan make:migration create_m_requisition_table --create=m_requisition</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E39" t="s">
+        <v>90</v>
+      </c>
+      <c r="F39" t="s">
+        <v>91</v>
+      </c>
+      <c r="G39" t="s">
+        <v>92</v>
+      </c>
+      <c r="H39" t="str">
+        <f>E39&amp;F39&amp;B39&amp;C39&amp;G39&amp;B39&amp;C39</f>
+        <v>php artisan make:migration create_m_requisitionline_table --create=m_requisitionline</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E40" t="s">
+        <v>90</v>
+      </c>
+      <c r="F40" t="s">
+        <v>91</v>
+      </c>
+      <c r="G40" t="s">
+        <v>92</v>
+      </c>
+      <c r="H40" t="str">
+        <f>E40&amp;F40&amp;B40&amp;C40&amp;G40&amp;B40&amp;C40</f>
+        <v>php artisan make:migration create_p_purchase_table --create=p_purchase</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E41" t="s">
+        <v>90</v>
+      </c>
+      <c r="F41" t="s">
+        <v>91</v>
+      </c>
+      <c r="G41" t="s">
+        <v>92</v>
+      </c>
+      <c r="H41" t="str">
+        <f>E41&amp;F41&amp;B41&amp;C41&amp;G41&amp;B41&amp;C41</f>
+        <v>php artisan make:migration create_p_purchaseline_table --create=p_purchaseline</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" t="s">
+        <v>90</v>
+      </c>
+      <c r="F42" t="s">
+        <v>91</v>
+      </c>
+      <c r="G42" t="s">
+        <v>92</v>
+      </c>
+      <c r="H42" t="str">
+        <f>E42&amp;F42&amp;B42&amp;C42&amp;G42&amp;B42&amp;C42</f>
+        <v>php artisan make:migration create_r_request_table --create=r_request</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E43" t="s">
+        <v>90</v>
+      </c>
+      <c r="F43" t="s">
+        <v>91</v>
+      </c>
+      <c r="G43" t="s">
+        <v>92</v>
+      </c>
+      <c r="H43" t="str">
+        <f>E43&amp;F43&amp;B43&amp;C43&amp;G43&amp;B43&amp;C43</f>
+        <v>php artisan make:migration create_r_requestline_table --create=r_requestline</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E44" t="s">
+        <v>90</v>
+      </c>
+      <c r="F44" t="s">
+        <v>91</v>
+      </c>
+      <c r="G44" t="s">
+        <v>92</v>
+      </c>
+      <c r="H44" t="str">
+        <f>E44&amp;F44&amp;B44&amp;C44&amp;G44&amp;B44&amp;C44</f>
+        <v>php artisan make:migration create_s_inquiry_table --create=s_inquiry</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E45" t="s">
+        <v>90</v>
+      </c>
+      <c r="F45" t="s">
+        <v>91</v>
+      </c>
+      <c r="G45" t="s">
+        <v>92</v>
+      </c>
+      <c r="H45" t="str">
+        <f>E45&amp;F45&amp;B45&amp;C45&amp;G45&amp;B45&amp;C45</f>
+        <v>php artisan make:migration create_s_inquiryline_table --create=s_inquiryline</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
+        <v>91</v>
+      </c>
+      <c r="G46" t="s">
+        <v>92</v>
+      </c>
+      <c r="H46" t="str">
+        <f>E46&amp;F46&amp;B46&amp;C46&amp;G46&amp;B46&amp;C46</f>
+        <v>php artisan make:migration create_s_quotation_table --create=s_quotation</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E47" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" t="s">
+        <v>91</v>
+      </c>
+      <c r="G47" t="s">
+        <v>92</v>
+      </c>
+      <c r="H47" t="str">
+        <f>E47&amp;F47&amp;B47&amp;C47&amp;G47&amp;B47&amp;C47</f>
+        <v>php artisan make:migration create_s_quotationline_table --create=s_quotationline</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D48" t="s">
+        <v>57</v>
+      </c>
+      <c r="E48" t="s">
+        <v>90</v>
+      </c>
+      <c r="F48" t="s">
+        <v>91</v>
+      </c>
+      <c r="G48" t="s">
+        <v>92</v>
+      </c>
+      <c r="H48" t="str">
+        <f>E48&amp;F48&amp;B48&amp;C48&amp;G48&amp;B48&amp;C48</f>
+        <v>php artisan make:migration create_s_rfq_table --create=s_rfq</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E49" t="s">
+        <v>90</v>
+      </c>
+      <c r="F49" t="s">
+        <v>91</v>
+      </c>
+      <c r="G49" t="s">
+        <v>92</v>
+      </c>
+      <c r="H49" t="str">
+        <f>E49&amp;F49&amp;B49&amp;C49&amp;G49&amp;B49&amp;C49</f>
+        <v>php artisan make:migration create_s_rfqline_table --create=s_rfqline</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D50" t="s">
+        <v>70</v>
+      </c>
+      <c r="E50" t="s">
+        <v>90</v>
+      </c>
+      <c r="F50" t="s">
+        <v>91</v>
+      </c>
+      <c r="G50" t="s">
+        <v>92</v>
+      </c>
+      <c r="H50" t="str">
+        <f>E50&amp;F50&amp;B50&amp;C50&amp;G50&amp;B50&amp;C50</f>
+        <v>php artisan make:migration create_s_rfqresponse_table --create=s_rfqresponse</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E51" t="s">
+        <v>90</v>
+      </c>
+      <c r="F51" t="s">
+        <v>91</v>
+      </c>
+      <c r="G51" t="s">
+        <v>92</v>
+      </c>
+      <c r="H51" t="str">
+        <f>E51&amp;F51&amp;B51&amp;C51&amp;G51&amp;B51&amp;C51</f>
+        <v>php artisan make:migration create_s_rfqresponseline_table --create=s_rfqresponseline</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B52" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E52" t="s">
+        <v>90</v>
+      </c>
+      <c r="F52" t="s">
+        <v>91</v>
+      </c>
+      <c r="G52" t="s">
+        <v>92</v>
+      </c>
+      <c r="H52" t="str">
+        <f>E52&amp;F52&amp;B52&amp;C52&amp;G52&amp;B52&amp;C52</f>
+        <v>php artisan make:migration create_s_sales_table --create=s_sales</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B53" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E53" t="s">
+        <v>90</v>
+      </c>
+      <c r="F53" t="s">
+        <v>91</v>
+      </c>
+      <c r="G53" t="s">
+        <v>92</v>
+      </c>
+      <c r="H53" t="str">
+        <f>E53&amp;F53&amp;B53&amp;C53&amp;G53&amp;B53&amp;C53</f>
+        <v>php artisan make:migration create_s_salesline_table --create=s_salesline</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B54" s="5"/>
+      <c r="E54" t="s">
+        <v>90</v>
+      </c>
+      <c r="F54" t="s">
+        <v>91</v>
+      </c>
+      <c r="G54" t="s">
+        <v>92</v>
+      </c>
+      <c r="H54" t="str">
+        <f>E54&amp;F54&amp;B54&amp;C54&amp;G54&amp;B54&amp;C54</f>
+        <v>php artisan make:migration create__table --create=</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E55" t="s">
+        <v>90</v>
+      </c>
+      <c r="F55" t="s">
+        <v>91</v>
+      </c>
+      <c r="G55" t="s">
+        <v>92</v>
+      </c>
+      <c r="H55" t="str">
+        <f>E55&amp;F55&amp;B55&amp;C55&amp;G55&amp;B55&amp;C55</f>
+        <v>php artisan make:migration create__table --create=</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E56" t="s">
+        <v>90</v>
+      </c>
+      <c r="F56" t="s">
+        <v>91</v>
+      </c>
+      <c r="G56" t="s">
+        <v>92</v>
+      </c>
+      <c r="H56" t="str">
+        <f>E56&amp;F56&amp;B56&amp;C56&amp;G56&amp;B56&amp;C56</f>
+        <v>php artisan make:migration create__table --create=</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E57" t="s">
+        <v>90</v>
+      </c>
+      <c r="F57" t="s">
+        <v>91</v>
+      </c>
+      <c r="G57" t="s">
+        <v>92</v>
+      </c>
+      <c r="H57" t="str">
+        <f>E57&amp;F57&amp;B57&amp;C57&amp;G57&amp;B57&amp;C57</f>
+        <v>php artisan make:migration create__table --create=</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E58" t="s">
+        <v>90</v>
+      </c>
+      <c r="F58" t="s">
+        <v>91</v>
+      </c>
+      <c r="G58" t="s">
+        <v>92</v>
+      </c>
+      <c r="H58" t="str">
+        <f>E58&amp;F58&amp;B58&amp;C58&amp;G58&amp;B58&amp;C58</f>
+        <v>php artisan make:migration create__table --create=</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E59" t="s">
+        <v>90</v>
+      </c>
+      <c r="F59" t="s">
+        <v>91</v>
+      </c>
+      <c r="G59" t="s">
+        <v>92</v>
+      </c>
+      <c r="H59" t="str">
+        <f>E59&amp;F59&amp;B59&amp;C59&amp;G59&amp;B59&amp;C59</f>
+        <v>php artisan make:migration create__table --create=</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E60" t="s">
+        <v>90</v>
+      </c>
+      <c r="F60" t="s">
+        <v>91</v>
+      </c>
+      <c r="G60" t="s">
+        <v>92</v>
+      </c>
+      <c r="H60" t="str">
+        <f>E60&amp;F60&amp;B60&amp;C60&amp;G60&amp;B60&amp;C60</f>
+        <v>php artisan make:migration create__table --create=</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E61" t="s">
+        <v>90</v>
+      </c>
+      <c r="F61" t="s">
+        <v>91</v>
+      </c>
+      <c r="G61" t="s">
+        <v>92</v>
+      </c>
+      <c r="H61" t="str">
+        <f>E61&amp;F61&amp;B61&amp;C61&amp;G61&amp;B61&amp;C61</f>
+        <v>php artisan make:migration create__table --create=</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E62" t="s">
+        <v>90</v>
+      </c>
+      <c r="F62" t="s">
+        <v>91</v>
+      </c>
+      <c r="G62" t="s">
+        <v>92</v>
+      </c>
+      <c r="H62" t="str">
+        <f>E62&amp;F62&amp;B62&amp;C62&amp;G62&amp;B62&amp;C62</f>
+        <v>php artisan make:migration create__table --create=</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E63" t="s">
+        <v>90</v>
+      </c>
+      <c r="F63" t="s">
+        <v>91</v>
+      </c>
+      <c r="G63" t="s">
+        <v>92</v>
+      </c>
+      <c r="H63" t="str">
+        <f>E63&amp;F63&amp;B63&amp;C63&amp;G63&amp;B63&amp;C63</f>
+        <v>php artisan make:migration create__table --create=</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E64" t="s">
+        <v>90</v>
+      </c>
+      <c r="F64" t="s">
+        <v>91</v>
+      </c>
+      <c r="G64" t="s">
+        <v>92</v>
+      </c>
+      <c r="H64" t="str">
+        <f>E64&amp;F64&amp;B64&amp;C64&amp;G64&amp;B64&amp;C64</f>
+        <v>php artisan make:migration create__table --create=</v>
+      </c>
+    </row>
+    <row r="65" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E65" t="s">
+        <v>90</v>
+      </c>
+      <c r="F65" t="s">
+        <v>91</v>
+      </c>
+      <c r="G65" t="s">
+        <v>92</v>
+      </c>
+      <c r="H65" t="str">
+        <f>E65&amp;F65&amp;B65&amp;C65&amp;G65&amp;B65&amp;C65</f>
+        <v>php artisan make:migration create__table --create=</v>
+      </c>
+    </row>
+    <row r="66" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E66" t="s">
+        <v>90</v>
+      </c>
+      <c r="F66" t="s">
+        <v>91</v>
+      </c>
+      <c r="G66" t="s">
+        <v>92</v>
+      </c>
+      <c r="H66" t="str">
+        <f>E66&amp;F66&amp;B66&amp;C66&amp;G66&amp;B66&amp;C66</f>
+        <v>php artisan make:migration create__table --create=</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H66">
+    <sortState ref="A2:H66">
+      <sortCondition ref="B1:B66"/>
+    </sortState>
+  </autoFilter>
+  <sortState ref="A2:E40">
+    <sortCondition ref="C2:C40"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -870,10 +2447,6 @@
       <sortCondition ref="B2:B36"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A2:D40">
-    <sortCondition ref="C2:C40"/>
-    <sortCondition ref="B2:B40"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/db/Tablename.xlsx
+++ b/db/Tablename.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="104">
   <si>
     <t>Table Name</t>
   </si>
@@ -338,6 +338,9 @@
   </si>
   <si>
     <t>php artisan migrate --path=database/migrations/tmp</t>
+  </si>
+  <si>
+    <t>user_recent</t>
   </si>
 </sst>
 </file>
@@ -720,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1162,11 +1165,11 @@
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="4" t="s">
-        <v>14</v>
+      <c r="B21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="E21" t="s">
         <v>90</v>
@@ -1179,7 +1182,7 @@
       </c>
       <c r="H21" t="str">
         <f>E21&amp;F21&amp;B21&amp;C21&amp;G21&amp;B21&amp;C21</f>
-        <v>php artisan make:migration create_c_1country_table --create=c_1country</v>
+        <v>php artisan make:migration create_a_user_recent_table --create=a_user_recent</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -1187,7 +1190,7 @@
         <v>14</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E22" t="s">
         <v>90</v>
@@ -1200,7 +1203,7 @@
       </c>
       <c r="H22" t="str">
         <f>E22&amp;F22&amp;B22&amp;C22&amp;G22&amp;B22&amp;C22</f>
-        <v>php artisan make:migration create_c_2province_table --create=c_2province</v>
+        <v>php artisan make:migration create_c_1country_table --create=c_1country</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -1208,7 +1211,7 @@
         <v>14</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E23" t="s">
         <v>90</v>
@@ -1221,7 +1224,7 @@
       </c>
       <c r="H23" t="str">
         <f>E23&amp;F23&amp;B23&amp;C23&amp;G23&amp;B23&amp;C23</f>
-        <v>php artisan make:migration create_c_3city_table --create=c_3city</v>
+        <v>php artisan make:migration create_c_2province_table --create=c_2province</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -1229,7 +1232,7 @@
         <v>14</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E24" t="s">
         <v>90</v>
@@ -1242,7 +1245,7 @@
       </c>
       <c r="H24" t="str">
         <f>E24&amp;F24&amp;B24&amp;C24&amp;G24&amp;B24&amp;C24</f>
-        <v>php artisan make:migration create_c_4district_table --create=c_4district</v>
+        <v>php artisan make:migration create_c_3city_table --create=c_3city</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -1250,7 +1253,7 @@
         <v>14</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E25" t="s">
         <v>90</v>
@@ -1263,15 +1266,15 @@
       </c>
       <c r="H25" t="str">
         <f>E25&amp;F25&amp;B25&amp;C25&amp;G25&amp;B25&amp;C25</f>
-        <v>php artisan make:migration create_c_5village_table --create=c_5village</v>
+        <v>php artisan make:migration create_c_4district_table --create=c_4district</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>12</v>
+      <c r="C26" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="E26" t="s">
         <v>90</v>
@@ -1284,7 +1287,7 @@
       </c>
       <c r="H26" t="str">
         <f>E26&amp;F26&amp;B26&amp;C26&amp;G26&amp;B26&amp;C26</f>
-        <v>php artisan make:migration create_c_bpartner_table --create=c_bpartner</v>
+        <v>php artisan make:migration create_c_5village_table --create=c_5village</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -1292,7 +1295,7 @@
         <v>14</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E27" t="s">
         <v>90</v>
@@ -1305,7 +1308,7 @@
       </c>
       <c r="H27" t="str">
         <f>E27&amp;F27&amp;B27&amp;C27&amp;G27&amp;B27&amp;C27</f>
-        <v>php artisan make:migration create_c_bpartner_location_table --create=c_bpartner_location</v>
+        <v>php artisan make:migration create_c_bpartner_table --create=c_bpartner</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -1313,7 +1316,7 @@
         <v>14</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E28" t="s">
         <v>90</v>
@@ -1326,7 +1329,7 @@
       </c>
       <c r="H28" t="str">
         <f>E28&amp;F28&amp;B28&amp;C28&amp;G28&amp;B28&amp;C28</f>
-        <v>php artisan make:migration create_c_currency_table --create=c_currency</v>
+        <v>php artisan make:migration create_c_bpartner_location_table --create=c_bpartner_location</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -1334,7 +1337,7 @@
         <v>14</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
         <v>90</v>
@@ -1347,18 +1350,15 @@
       </c>
       <c r="H29" t="str">
         <f>E29&amp;F29&amp;B29&amp;C29&amp;G29&amp;B29&amp;C29</f>
-        <v>php artisan make:migration create_c_currency_rates_table --create=c_currency_rates</v>
+        <v>php artisan make:migration create_c_currency_table --create=c_currency</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="9" t="s">
-        <v>101</v>
+      <c r="B30" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D30" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
         <v>90</v>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="H30" t="str">
         <f>E30&amp;F30&amp;B30&amp;C30&amp;G30&amp;B30&amp;C30</f>
-        <v>php artisan make:migration create_cm_chat_table --create=cm_chat</v>
+        <v>php artisan make:migration create_c_currency_rates_table --create=c_currency_rates</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -1379,7 +1379,10 @@
         <v>101</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="D31" t="s">
+        <v>58</v>
       </c>
       <c r="E31" t="s">
         <v>90</v>
@@ -1392,18 +1395,15 @@
       </c>
       <c r="H31" t="str">
         <f>E31&amp;F31&amp;B31&amp;C31&amp;G31&amp;B31&amp;C31</f>
-        <v>php artisan make:migration create_cm_chatline_table --create=cm_chatline</v>
+        <v>php artisan make:migration create_cm_chat_table --create=cm_chat</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="5" t="s">
-        <v>80</v>
+      <c r="B32" s="9" t="s">
+        <v>101</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D32" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="E32" t="s">
         <v>90</v>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="H32" t="str">
         <f>E32&amp;F32&amp;B32&amp;C32&amp;G32&amp;B32&amp;C32</f>
-        <v>php artisan make:migration create_m_distribution_table --create=m_distribution</v>
+        <v>php artisan make:migration create_cm_chatline_table --create=cm_chatline</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -1424,7 +1424,10 @@
         <v>80</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
+      </c>
+      <c r="D33" t="s">
+        <v>87</v>
       </c>
       <c r="E33" t="s">
         <v>90</v>
@@ -1437,7 +1440,7 @@
       </c>
       <c r="H33" t="str">
         <f>E33&amp;F33&amp;B33&amp;C33&amp;G33&amp;B33&amp;C33</f>
-        <v>php artisan make:migration create_m_distributionline_table --create=m_distributionline</v>
+        <v>php artisan make:migration create_m_distribution_table --create=m_distribution</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
@@ -1445,10 +1448,7 @@
         <v>80</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D34" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E34" t="s">
         <v>90</v>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="H34" t="str">
         <f>E34&amp;F34&amp;B34&amp;C34&amp;G34&amp;B34&amp;C34</f>
-        <v>php artisan make:migration create_m_inout_table --create=m_inout</v>
+        <v>php artisan make:migration create_m_distributionline_table --create=m_distributionline</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
@@ -1469,7 +1469,10 @@
         <v>80</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="D35" t="s">
+        <v>83</v>
       </c>
       <c r="E35" t="s">
         <v>90</v>
@@ -1482,7 +1485,7 @@
       </c>
       <c r="H35" t="str">
         <f>E35&amp;F35&amp;B35&amp;C35&amp;G35&amp;B35&amp;C35</f>
-        <v>php artisan make:migration create_m_inoutline_table --create=m_inoutline</v>
+        <v>php artisan make:migration create_m_inout_table --create=m_inout</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
@@ -1490,10 +1493,7 @@
         <v>80</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D36" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E36" t="s">
         <v>90</v>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="H36" t="str">
         <f>E36&amp;F36&amp;B36&amp;C36&amp;G36&amp;B36&amp;C36</f>
-        <v>php artisan make:migration create_m_movement_table --create=m_movement</v>
+        <v>php artisan make:migration create_m_inoutline_table --create=m_inoutline</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
@@ -1514,7 +1514,10 @@
         <v>80</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
+      </c>
+      <c r="D37" t="s">
+        <v>85</v>
       </c>
       <c r="E37" t="s">
         <v>90</v>
@@ -1527,18 +1530,15 @@
       </c>
       <c r="H37" t="str">
         <f>E37&amp;F37&amp;B37&amp;C37&amp;G37&amp;B37&amp;C37</f>
-        <v>php artisan make:migration create_m_movementline_table --create=m_movementline</v>
+        <v>php artisan make:migration create_m_movement_table --create=m_movement</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="5" t="s">
         <v>80</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D38" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="E38" t="s">
         <v>90</v>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="H38" t="str">
         <f>E38&amp;F38&amp;B38&amp;C38&amp;G38&amp;B38&amp;C38</f>
-        <v>php artisan make:migration create_m_requisition_table --create=m_requisition</v>
+        <v>php artisan make:migration create_m_movementline_table --create=m_movementline</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
@@ -1559,7 +1559,10 @@
         <v>80</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
+      </c>
+      <c r="D39" t="s">
+        <v>73</v>
       </c>
       <c r="E39" t="s">
         <v>90</v>
@@ -1572,15 +1575,15 @@
       </c>
       <c r="H39" t="str">
         <f>E39&amp;F39&amp;B39&amp;C39&amp;G39&amp;B39&amp;C39</f>
-        <v>php artisan make:migration create_m_requisitionline_table --create=m_requisitionline</v>
+        <v>php artisan make:migration create_m_requisition_table --create=m_requisition</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="6" t="s">
-        <v>78</v>
+      <c r="B40" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E40" t="s">
         <v>90</v>
@@ -1593,7 +1596,7 @@
       </c>
       <c r="H40" t="str">
         <f>E40&amp;F40&amp;B40&amp;C40&amp;G40&amp;B40&amp;C40</f>
-        <v>php artisan make:migration create_p_purchase_table --create=p_purchase</v>
+        <v>php artisan make:migration create_m_requisitionline_table --create=m_requisitionline</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
@@ -1601,7 +1604,7 @@
         <v>78</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E41" t="s">
         <v>90</v>
@@ -1614,18 +1617,15 @@
       </c>
       <c r="H41" t="str">
         <f>E41&amp;F41&amp;B41&amp;C41&amp;G41&amp;B41&amp;C41</f>
-        <v>php artisan make:migration create_p_purchaseline_table --create=p_purchaseline</v>
+        <v>php artisan make:migration create_p_purchase_table --create=p_purchase</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="8" t="s">
-        <v>79</v>
+      <c r="B42" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D42" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="E42" t="s">
         <v>90</v>
@@ -1638,7 +1638,7 @@
       </c>
       <c r="H42" t="str">
         <f>E42&amp;F42&amp;B42&amp;C42&amp;G42&amp;B42&amp;C42</f>
-        <v>php artisan make:migration create_r_request_table --create=r_request</v>
+        <v>php artisan make:migration create_p_purchaseline_table --create=p_purchaseline</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
@@ -1646,7 +1646,10 @@
         <v>79</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
+      </c>
+      <c r="D43" t="s">
+        <v>69</v>
       </c>
       <c r="E43" t="s">
         <v>90</v>
@@ -1659,15 +1662,15 @@
       </c>
       <c r="H43" t="str">
         <f>E43&amp;F43&amp;B43&amp;C43&amp;G43&amp;B43&amp;C43</f>
-        <v>php artisan make:migration create_r_requestline_table --create=r_requestline</v>
+        <v>php artisan make:migration create_r_request_table --create=r_request</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="5" t="s">
-        <v>56</v>
+      <c r="B44" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="E44" t="s">
         <v>90</v>
@@ -1680,7 +1683,7 @@
       </c>
       <c r="H44" t="str">
         <f>E44&amp;F44&amp;B44&amp;C44&amp;G44&amp;B44&amp;C44</f>
-        <v>php artisan make:migration create_s_inquiry_table --create=s_inquiry</v>
+        <v>php artisan make:migration create_r_requestline_table --create=r_requestline</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
@@ -1688,7 +1691,7 @@
         <v>56</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E45" t="s">
         <v>90</v>
@@ -1701,7 +1704,7 @@
       </c>
       <c r="H45" t="str">
         <f>E45&amp;F45&amp;B45&amp;C45&amp;G45&amp;B45&amp;C45</f>
-        <v>php artisan make:migration create_s_inquiryline_table --create=s_inquiryline</v>
+        <v>php artisan make:migration create_s_inquiry_table --create=s_inquiry</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
@@ -1709,7 +1712,7 @@
         <v>56</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E46" t="s">
         <v>90</v>
@@ -1722,7 +1725,7 @@
       </c>
       <c r="H46" t="str">
         <f>E46&amp;F46&amp;B46&amp;C46&amp;G46&amp;B46&amp;C46</f>
-        <v>php artisan make:migration create_s_quotation_table --create=s_quotation</v>
+        <v>php artisan make:migration create_s_inquiryline_table --create=s_inquiryline</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
@@ -1730,7 +1733,7 @@
         <v>56</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E47" t="s">
         <v>90</v>
@@ -1743,7 +1746,7 @@
       </c>
       <c r="H47" t="str">
         <f>E47&amp;F47&amp;B47&amp;C47&amp;G47&amp;B47&amp;C47</f>
-        <v>php artisan make:migration create_s_quotationline_table --create=s_quotationline</v>
+        <v>php artisan make:migration create_s_quotation_table --create=s_quotation</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
@@ -1751,10 +1754,7 @@
         <v>56</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D48" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="E48" t="s">
         <v>90</v>
@@ -1767,7 +1767,7 @@
       </c>
       <c r="H48" t="str">
         <f>E48&amp;F48&amp;B48&amp;C48&amp;G48&amp;B48&amp;C48</f>
-        <v>php artisan make:migration create_s_rfq_table --create=s_rfq</v>
+        <v>php artisan make:migration create_s_quotationline_table --create=s_quotationline</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
@@ -1775,7 +1775,10 @@
         <v>56</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="D49" t="s">
+        <v>57</v>
       </c>
       <c r="E49" t="s">
         <v>90</v>
@@ -1788,7 +1791,7 @@
       </c>
       <c r="H49" t="str">
         <f>E49&amp;F49&amp;B49&amp;C49&amp;G49&amp;B49&amp;C49</f>
-        <v>php artisan make:migration create_s_rfqline_table --create=s_rfqline</v>
+        <v>php artisan make:migration create_s_rfq_table --create=s_rfq</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
@@ -1796,10 +1799,7 @@
         <v>56</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D50" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E50" t="s">
         <v>90</v>
@@ -1812,7 +1812,7 @@
       </c>
       <c r="H50" t="str">
         <f>E50&amp;F50&amp;B50&amp;C50&amp;G50&amp;B50&amp;C50</f>
-        <v>php artisan make:migration create_s_rfqresponse_table --create=s_rfqresponse</v>
+        <v>php artisan make:migration create_s_rfqline_table --create=s_rfqline</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
@@ -1820,7 +1820,10 @@
         <v>56</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="D51" t="s">
+        <v>70</v>
       </c>
       <c r="E51" t="s">
         <v>90</v>
@@ -1833,7 +1836,7 @@
       </c>
       <c r="H51" t="str">
         <f>E51&amp;F51&amp;B51&amp;C51&amp;G51&amp;B51&amp;C51</f>
-        <v>php artisan make:migration create_s_rfqresponseline_table --create=s_rfqresponseline</v>
+        <v>php artisan make:migration create_s_rfqresponse_table --create=s_rfqresponse</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
@@ -1841,7 +1844,7 @@
         <v>56</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="E52" t="s">
         <v>90</v>
@@ -1854,7 +1857,7 @@
       </c>
       <c r="H52" t="str">
         <f>E52&amp;F52&amp;B52&amp;C52&amp;G52&amp;B52&amp;C52</f>
-        <v>php artisan make:migration create_s_sales_table --create=s_sales</v>
+        <v>php artisan make:migration create_s_rfqresponseline_table --create=s_rfqresponseline</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
@@ -1862,7 +1865,7 @@
         <v>56</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E53" t="s">
         <v>90</v>
@@ -1875,11 +1878,16 @@
       </c>
       <c r="H53" t="str">
         <f>E53&amp;F53&amp;B53&amp;C53&amp;G53&amp;B53&amp;C53</f>
-        <v>php artisan make:migration create_s_salesline_table --create=s_salesline</v>
+        <v>php artisan make:migration create_s_sales_table --create=s_sales</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="5"/>
+      <c r="B54" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="E54" t="s">
         <v>90</v>
       </c>
@@ -1891,7 +1899,7 @@
       </c>
       <c r="H54" t="str">
         <f>E54&amp;F54&amp;B54&amp;C54&amp;G54&amp;B54&amp;C54</f>
-        <v>php artisan make:migration create__table --create=</v>
+        <v>php artisan make:migration create_s_salesline_table --create=s_salesline</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">

--- a/db/Tablename.xlsx
+++ b/db/Tablename.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="109">
   <si>
     <t>Table Name</t>
   </si>
@@ -253,18 +253,6 @@
     <t>pr</t>
   </si>
   <si>
-    <t>sales</t>
-  </si>
-  <si>
-    <t>salesline</t>
-  </si>
-  <si>
-    <t>purchase</t>
-  </si>
-  <si>
-    <t>purchaseline</t>
-  </si>
-  <si>
     <t>p_</t>
   </si>
   <si>
@@ -341,6 +329,33 @@
   </si>
   <si>
     <t>user_recent</t>
+  </si>
+  <si>
+    <t>l_</t>
+  </si>
+  <si>
+    <t>porder</t>
+  </si>
+  <si>
+    <t>porderline</t>
+  </si>
+  <si>
+    <t>sorder</t>
+  </si>
+  <si>
+    <t>sorderline</t>
+  </si>
+  <si>
+    <t>service_type</t>
+  </si>
+  <si>
+    <t>manifest</t>
+  </si>
+  <si>
+    <t>manifestline</t>
+  </si>
+  <si>
+    <t>shipment_status</t>
   </si>
 </sst>
 </file>
@@ -724,7 +739,7 @@
   <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,16 +765,16 @@
         <v>40</v>
       </c>
       <c r="E1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -770,19 +785,19 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H2" t="str">
-        <f>E2&amp;F2&amp;B2&amp;C2&amp;G2&amp;B2&amp;C2</f>
+        <f t="shared" ref="H2:H33" si="0">E2&amp;F2&amp;B2&amp;C2&amp;G2&amp;B2&amp;C2</f>
         <v>php artisan make:migration create_a_client_table --create=a_client</v>
       </c>
     </row>
@@ -791,19 +806,19 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H3" t="str">
-        <f>E3&amp;F3&amp;B3&amp;C3&amp;G3&amp;B3&amp;C3</f>
+        <f t="shared" si="0"/>
         <v>php artisan make:migration create_a_dashboard_table --create=a_dashboard</v>
       </c>
     </row>
@@ -815,16 +830,16 @@
         <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H4" t="str">
-        <f>E4&amp;F4&amp;B4&amp;C4&amp;G4&amp;B4&amp;C4</f>
+        <f t="shared" si="0"/>
         <v>php artisan make:migration create_a_loginattempt_table --create=a_loginattempt</v>
       </c>
     </row>
@@ -836,16 +851,16 @@
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H5" t="str">
-        <f>E5&amp;F5&amp;B5&amp;C5&amp;G5&amp;B5&amp;C5</f>
+        <f t="shared" si="0"/>
         <v>php artisan make:migration create_a_menu_table --create=a_menu</v>
       </c>
     </row>
@@ -857,16 +872,16 @@
         <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H6" t="str">
-        <f>E6&amp;F6&amp;B6&amp;C6&amp;G6&amp;B6&amp;C6</f>
+        <f t="shared" si="0"/>
         <v>php artisan make:migration create_a_org_table --create=a_org</v>
       </c>
     </row>
@@ -878,16 +893,16 @@
         <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H7" t="str">
-        <f>E7&amp;F7&amp;B7&amp;C7&amp;G7&amp;B7&amp;C7</f>
+        <f t="shared" si="0"/>
         <v>php artisan make:migration create_a_orgtype_table --create=a_orgtype</v>
       </c>
     </row>
@@ -899,16 +914,16 @@
         <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H8" t="str">
-        <f>E8&amp;F8&amp;B8&amp;C8&amp;G8&amp;B8&amp;C8</f>
+        <f t="shared" si="0"/>
         <v>php artisan make:migration create_a_role_table --create=a_role</v>
       </c>
     </row>
@@ -917,19 +932,19 @@
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E9" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H9" t="str">
-        <f>E9&amp;F9&amp;B9&amp;C9&amp;G9&amp;B9&amp;C9</f>
+        <f t="shared" si="0"/>
         <v>php artisan make:migration create_a_role_dashboard_table --create=a_role_dashboard</v>
       </c>
     </row>
@@ -941,16 +956,16 @@
         <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G10" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H10" t="str">
-        <f>E10&amp;F10&amp;B10&amp;C10&amp;G10&amp;B10&amp;C10</f>
+        <f t="shared" si="0"/>
         <v>php artisan make:migration create_a_role_menu_table --create=a_role_menu</v>
       </c>
     </row>
@@ -962,16 +977,16 @@
         <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G11" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H11" t="str">
-        <f>E11&amp;F11&amp;B11&amp;C11&amp;G11&amp;B11&amp;C11</f>
+        <f t="shared" si="0"/>
         <v>php artisan make:migration create_a_role_process_table --create=a_role_process</v>
       </c>
     </row>
@@ -983,16 +998,16 @@
         <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F12" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G12" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H12" t="str">
-        <f>E12&amp;F12&amp;B12&amp;C12&amp;G12&amp;B12&amp;C12</f>
+        <f t="shared" si="0"/>
         <v>php artisan make:migration create_a_sequence_table --create=a_sequence</v>
       </c>
     </row>
@@ -1004,16 +1019,16 @@
         <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F13" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G13" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H13" t="str">
-        <f>E13&amp;F13&amp;B13&amp;C13&amp;G13&amp;B13&amp;C13</f>
+        <f t="shared" si="0"/>
         <v>php artisan make:migration create_a_sequence_no_table --create=a_sequence_no</v>
       </c>
     </row>
@@ -1025,16 +1040,16 @@
         <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H14" t="str">
-        <f>E14&amp;F14&amp;B14&amp;C14&amp;G14&amp;B14&amp;C14</f>
+        <f t="shared" si="0"/>
         <v>php artisan make:migration create_a_system_table --create=a_system</v>
       </c>
     </row>
@@ -1046,16 +1061,16 @@
         <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F15" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G15" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H15" t="str">
-        <f>E15&amp;F15&amp;B15&amp;C15&amp;G15&amp;B15&amp;C15</f>
+        <f t="shared" si="0"/>
         <v>php artisan make:migration create_a_user_table --create=a_user</v>
       </c>
     </row>
@@ -1067,16 +1082,16 @@
         <v>46</v>
       </c>
       <c r="E16" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F16" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G16" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H16" t="str">
-        <f>E16&amp;F16&amp;B16&amp;C16&amp;G16&amp;B16&amp;C16</f>
+        <f t="shared" si="0"/>
         <v>php artisan make:migration create_a_user_config_table --create=a_user_config</v>
       </c>
     </row>
@@ -1088,16 +1103,16 @@
         <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F17" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G17" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H17" t="str">
-        <f>E17&amp;F17&amp;B17&amp;C17&amp;G17&amp;B17&amp;C17</f>
+        <f t="shared" si="0"/>
         <v>php artisan make:migration create_a_user_mail_table --create=a_user_mail</v>
       </c>
     </row>
@@ -1109,16 +1124,16 @@
         <v>36</v>
       </c>
       <c r="E18" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G18" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H18" t="str">
-        <f>E18&amp;F18&amp;B18&amp;C18&amp;G18&amp;B18&amp;C18</f>
+        <f t="shared" si="0"/>
         <v>php artisan make:migration create_a_user_org_table --create=a_user_org</v>
       </c>
     </row>
@@ -1130,16 +1145,16 @@
         <v>37</v>
       </c>
       <c r="E19" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F19" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G19" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H19" t="str">
-        <f>E19&amp;F19&amp;B19&amp;C19&amp;G19&amp;B19&amp;C19</f>
+        <f t="shared" si="0"/>
         <v>php artisan make:migration create_a_user_role_table --create=a_user_role</v>
       </c>
     </row>
@@ -1151,16 +1166,16 @@
         <v>38</v>
       </c>
       <c r="E20" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F20" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H20" t="str">
-        <f>E20&amp;F20&amp;B20&amp;C20&amp;G20&amp;B20&amp;C20</f>
+        <f t="shared" si="0"/>
         <v>php artisan make:migration create_a_user_substitute_table --create=a_user_substitute</v>
       </c>
     </row>
@@ -1169,19 +1184,19 @@
         <v>3</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E21" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F21" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G21" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H21" t="str">
-        <f>E21&amp;F21&amp;B21&amp;C21&amp;G21&amp;B21&amp;C21</f>
+        <f t="shared" si="0"/>
         <v>php artisan make:migration create_a_user_recent_table --create=a_user_recent</v>
       </c>
     </row>
@@ -1193,16 +1208,16 @@
         <v>51</v>
       </c>
       <c r="E22" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F22" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G22" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H22" t="str">
-        <f>E22&amp;F22&amp;B22&amp;C22&amp;G22&amp;B22&amp;C22</f>
+        <f t="shared" si="0"/>
         <v>php artisan make:migration create_c_1country_table --create=c_1country</v>
       </c>
     </row>
@@ -1214,16 +1229,16 @@
         <v>52</v>
       </c>
       <c r="E23" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F23" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G23" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H23" t="str">
-        <f>E23&amp;F23&amp;B23&amp;C23&amp;G23&amp;B23&amp;C23</f>
+        <f t="shared" si="0"/>
         <v>php artisan make:migration create_c_2province_table --create=c_2province</v>
       </c>
     </row>
@@ -1235,16 +1250,16 @@
         <v>53</v>
       </c>
       <c r="E24" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F24" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G24" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H24" t="str">
-        <f>E24&amp;F24&amp;B24&amp;C24&amp;G24&amp;B24&amp;C24</f>
+        <f t="shared" si="0"/>
         <v>php artisan make:migration create_c_3city_table --create=c_3city</v>
       </c>
     </row>
@@ -1256,16 +1271,16 @@
         <v>54</v>
       </c>
       <c r="E25" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F25" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G25" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H25" t="str">
-        <f>E25&amp;F25&amp;B25&amp;C25&amp;G25&amp;B25&amp;C25</f>
+        <f t="shared" si="0"/>
         <v>php artisan make:migration create_c_4district_table --create=c_4district</v>
       </c>
     </row>
@@ -1277,16 +1292,16 @@
         <v>55</v>
       </c>
       <c r="E26" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F26" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H26" t="str">
-        <f>E26&amp;F26&amp;B26&amp;C26&amp;G26&amp;B26&amp;C26</f>
+        <f t="shared" si="0"/>
         <v>php artisan make:migration create_c_5village_table --create=c_5village</v>
       </c>
     </row>
@@ -1298,16 +1313,16 @@
         <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F27" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G27" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H27" t="str">
-        <f>E27&amp;F27&amp;B27&amp;C27&amp;G27&amp;B27&amp;C27</f>
+        <f t="shared" si="0"/>
         <v>php artisan make:migration create_c_bpartner_table --create=c_bpartner</v>
       </c>
     </row>
@@ -1319,16 +1334,16 @@
         <v>13</v>
       </c>
       <c r="E28" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F28" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G28" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H28" t="str">
-        <f>E28&amp;F28&amp;B28&amp;C28&amp;G28&amp;B28&amp;C28</f>
+        <f t="shared" si="0"/>
         <v>php artisan make:migration create_c_bpartner_location_table --create=c_bpartner_location</v>
       </c>
     </row>
@@ -1340,16 +1355,16 @@
         <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F29" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G29" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H29" t="str">
-        <f>E29&amp;F29&amp;B29&amp;C29&amp;G29&amp;B29&amp;C29</f>
+        <f t="shared" si="0"/>
         <v>php artisan make:migration create_c_currency_table --create=c_currency</v>
       </c>
     </row>
@@ -1361,202 +1376,202 @@
         <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F30" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G30" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H30" t="str">
-        <f>E30&amp;F30&amp;B30&amp;C30&amp;G30&amp;B30&amp;C30</f>
+        <f t="shared" si="0"/>
         <v>php artisan make:migration create_c_currency_rates_table --create=c_currency_rates</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="9" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D31" t="s">
         <v>58</v>
       </c>
       <c r="E31" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F31" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G31" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H31" t="str">
-        <f>E31&amp;F31&amp;B31&amp;C31&amp;G31&amp;B31&amp;C31</f>
+        <f t="shared" si="0"/>
         <v>php artisan make:migration create_cm_chat_table --create=cm_chat</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="9" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E32" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F32" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G32" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H32" t="str">
-        <f>E32&amp;F32&amp;B32&amp;C32&amp;G32&amp;B32&amp;C32</f>
+        <f t="shared" si="0"/>
         <v>php artisan make:migration create_cm_chatline_table --create=cm_chatline</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D33" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E33" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F33" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G33" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H33" t="str">
-        <f>E33&amp;F33&amp;B33&amp;C33&amp;G33&amp;B33&amp;C33</f>
+        <f t="shared" si="0"/>
         <v>php artisan make:migration create_m_distribution_table --create=m_distribution</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E34" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F34" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G34" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H34" t="str">
-        <f>E34&amp;F34&amp;B34&amp;C34&amp;G34&amp;B34&amp;C34</f>
+        <f t="shared" ref="H34:H65" si="1">E34&amp;F34&amp;B34&amp;C34&amp;G34&amp;B34&amp;C34</f>
         <v>php artisan make:migration create_m_distributionline_table --create=m_distributionline</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D35" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E35" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H35" t="str">
-        <f>E35&amp;F35&amp;B35&amp;C35&amp;G35&amp;B35&amp;C35</f>
+        <f t="shared" si="1"/>
         <v>php artisan make:migration create_m_inout_table --create=m_inout</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E36" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F36" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G36" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H36" t="str">
-        <f>E36&amp;F36&amp;B36&amp;C36&amp;G36&amp;B36&amp;C36</f>
+        <f t="shared" si="1"/>
         <v>php artisan make:migration create_m_inoutline_table --create=m_inoutline</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="D37" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E37" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F37" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G37" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H37" t="str">
-        <f>E37&amp;F37&amp;B37&amp;C37&amp;G37&amp;B37&amp;C37</f>
+        <f t="shared" si="1"/>
         <v>php artisan make:migration create_m_movement_table --create=m_movement</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E38" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F38" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G38" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H38" t="str">
-        <f>E38&amp;F38&amp;B38&amp;C38&amp;G38&amp;B38&amp;C38</f>
+        <f t="shared" si="1"/>
         <v>php artisan make:migration create_m_movementline_table --create=m_movementline</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>71</v>
@@ -1565,85 +1580,85 @@
         <v>73</v>
       </c>
       <c r="E39" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F39" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G39" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H39" t="str">
-        <f>E39&amp;F39&amp;B39&amp;C39&amp;G39&amp;B39&amp;C39</f>
+        <f t="shared" si="1"/>
         <v>php artisan make:migration create_m_requisition_table --create=m_requisition</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>72</v>
       </c>
       <c r="E40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F40" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G40" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H40" t="str">
-        <f>E40&amp;F40&amp;B40&amp;C40&amp;G40&amp;B40&amp;C40</f>
+        <f t="shared" si="1"/>
         <v>php artisan make:migration create_m_requisitionline_table --create=m_requisitionline</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="E41" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F41" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G41" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H41" t="str">
-        <f>E41&amp;F41&amp;B41&amp;C41&amp;G41&amp;B41&amp;C41</f>
-        <v>php artisan make:migration create_p_purchase_table --create=p_purchase</v>
+        <f t="shared" si="1"/>
+        <v>php artisan make:migration create_p_porder_table --create=p_porder</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="E42" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F42" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G42" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H42" t="str">
-        <f>E42&amp;F42&amp;B42&amp;C42&amp;G42&amp;B42&amp;C42</f>
-        <v>php artisan make:migration create_p_purchaseline_table --create=p_purchaseline</v>
+        <f t="shared" si="1"/>
+        <v>php artisan make:migration create_p_porderline_table --create=p_porderline</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>67</v>
@@ -1652,37 +1667,37 @@
         <v>69</v>
       </c>
       <c r="E43" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F43" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G43" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H43" t="str">
-        <f>E43&amp;F43&amp;B43&amp;C43&amp;G43&amp;B43&amp;C43</f>
+        <f t="shared" si="1"/>
         <v>php artisan make:migration create_r_request_table --create=r_request</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E44" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F44" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G44" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H44" t="str">
-        <f>E44&amp;F44&amp;B44&amp;C44&amp;G44&amp;B44&amp;C44</f>
+        <f t="shared" si="1"/>
         <v>php artisan make:migration create_r_requestline_table --create=r_requestline</v>
       </c>
     </row>
@@ -1694,16 +1709,16 @@
         <v>59</v>
       </c>
       <c r="E45" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F45" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G45" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H45" t="str">
-        <f>E45&amp;F45&amp;B45&amp;C45&amp;G45&amp;B45&amp;C45</f>
+        <f t="shared" si="1"/>
         <v>php artisan make:migration create_s_inquiry_table --create=s_inquiry</v>
       </c>
     </row>
@@ -1715,16 +1730,16 @@
         <v>60</v>
       </c>
       <c r="E46" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F46" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G46" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H46" t="str">
-        <f>E46&amp;F46&amp;B46&amp;C46&amp;G46&amp;B46&amp;C46</f>
+        <f t="shared" si="1"/>
         <v>php artisan make:migration create_s_inquiryline_table --create=s_inquiryline</v>
       </c>
     </row>
@@ -1736,16 +1751,16 @@
         <v>65</v>
       </c>
       <c r="E47" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F47" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G47" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H47" t="str">
-        <f>E47&amp;F47&amp;B47&amp;C47&amp;G47&amp;B47&amp;C47</f>
+        <f t="shared" si="1"/>
         <v>php artisan make:migration create_s_quotation_table --create=s_quotation</v>
       </c>
     </row>
@@ -1757,16 +1772,16 @@
         <v>66</v>
       </c>
       <c r="E48" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F48" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G48" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H48" t="str">
-        <f>E48&amp;F48&amp;B48&amp;C48&amp;G48&amp;B48&amp;C48</f>
+        <f t="shared" si="1"/>
         <v>php artisan make:migration create_s_quotationline_table --create=s_quotationline</v>
       </c>
     </row>
@@ -1781,16 +1796,16 @@
         <v>57</v>
       </c>
       <c r="E49" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F49" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G49" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H49" t="str">
-        <f>E49&amp;F49&amp;B49&amp;C49&amp;G49&amp;B49&amp;C49</f>
+        <f t="shared" si="1"/>
         <v>php artisan make:migration create_s_rfq_table --create=s_rfq</v>
       </c>
     </row>
@@ -1802,16 +1817,16 @@
         <v>62</v>
       </c>
       <c r="E50" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F50" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G50" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H50" t="str">
-        <f>E50&amp;F50&amp;B50&amp;C50&amp;G50&amp;B50&amp;C50</f>
+        <f t="shared" si="1"/>
         <v>php artisan make:migration create_s_rfqline_table --create=s_rfqline</v>
       </c>
     </row>
@@ -1826,16 +1841,16 @@
         <v>70</v>
       </c>
       <c r="E51" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F51" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G51" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H51" t="str">
-        <f>E51&amp;F51&amp;B51&amp;C51&amp;G51&amp;B51&amp;C51</f>
+        <f t="shared" si="1"/>
         <v>php artisan make:migration create_s_rfqresponse_table --create=s_rfqresponse</v>
       </c>
     </row>
@@ -1847,16 +1862,16 @@
         <v>64</v>
       </c>
       <c r="E52" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G52" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H52" t="str">
-        <f>E52&amp;F52&amp;B52&amp;C52&amp;G52&amp;B52&amp;C52</f>
+        <f t="shared" si="1"/>
         <v>php artisan make:migration create_s_rfqresponseline_table --create=s_rfqresponseline</v>
       </c>
     </row>
@@ -1865,20 +1880,20 @@
         <v>56</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="E53" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F53" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G53" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H53" t="str">
-        <f>E53&amp;F53&amp;B53&amp;C53&amp;G53&amp;B53&amp;C53</f>
-        <v>php artisan make:migration create_s_sales_table --create=s_sales</v>
+        <f t="shared" si="1"/>
+        <v>php artisan make:migration create_s_sorder_table --create=s_sorder</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
@@ -1886,199 +1901,223 @@
         <v>56</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="E54" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F54" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G54" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H54" t="str">
-        <f>E54&amp;F54&amp;B54&amp;C54&amp;G54&amp;B54&amp;C54</f>
-        <v>php artisan make:migration create_s_salesline_table --create=s_salesline</v>
+        <f t="shared" si="1"/>
+        <v>php artisan make:migration create_s_sorderline_table --create=s_sorderline</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B55" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="E55" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F55" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G55" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H55" t="str">
-        <f>E55&amp;F55&amp;B55&amp;C55&amp;G55&amp;B55&amp;C55</f>
-        <v>php artisan make:migration create__table --create=</v>
+        <f t="shared" si="1"/>
+        <v>php artisan make:migration create_l_service_type_table --create=l_service_type</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="E56" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F56" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G56" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H56" t="str">
-        <f>E56&amp;F56&amp;B56&amp;C56&amp;G56&amp;B56&amp;C56</f>
-        <v>php artisan make:migration create__table --create=</v>
+        <f t="shared" si="1"/>
+        <v>php artisan make:migration create_l_shipment_status_table --create=l_shipment_status</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B57" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="E57" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F57" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G57" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H57" t="str">
-        <f>E57&amp;F57&amp;B57&amp;C57&amp;G57&amp;B57&amp;C57</f>
-        <v>php artisan make:migration create__table --create=</v>
+        <f t="shared" si="1"/>
+        <v>php artisan make:migration create_l_manifest_table --create=l_manifest</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B58" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="E58" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F58" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G58" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H58" t="str">
-        <f>E58&amp;F58&amp;B58&amp;C58&amp;G58&amp;B58&amp;C58</f>
-        <v>php artisan make:migration create__table --create=</v>
+        <f t="shared" si="1"/>
+        <v>php artisan make:migration create_l_manifestline_table --create=l_manifestline</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E59" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F59" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G59" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H59" t="str">
-        <f>E59&amp;F59&amp;B59&amp;C59&amp;G59&amp;B59&amp;C59</f>
+        <f t="shared" si="1"/>
         <v>php artisan make:migration create__table --create=</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E60" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F60" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G60" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H60" t="str">
-        <f>E60&amp;F60&amp;B60&amp;C60&amp;G60&amp;B60&amp;C60</f>
+        <f t="shared" si="1"/>
         <v>php artisan make:migration create__table --create=</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E61" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F61" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G61" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H61" t="str">
-        <f>E61&amp;F61&amp;B61&amp;C61&amp;G61&amp;B61&amp;C61</f>
+        <f t="shared" si="1"/>
         <v>php artisan make:migration create__table --create=</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E62" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F62" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G62" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H62" t="str">
-        <f>E62&amp;F62&amp;B62&amp;C62&amp;G62&amp;B62&amp;C62</f>
+        <f t="shared" si="1"/>
         <v>php artisan make:migration create__table --create=</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E63" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F63" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G63" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H63" t="str">
-        <f>E63&amp;F63&amp;B63&amp;C63&amp;G63&amp;B63&amp;C63</f>
+        <f t="shared" si="1"/>
         <v>php artisan make:migration create__table --create=</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E64" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F64" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G64" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H64" t="str">
-        <f>E64&amp;F64&amp;B64&amp;C64&amp;G64&amp;B64&amp;C64</f>
+        <f t="shared" si="1"/>
         <v>php artisan make:migration create__table --create=</v>
       </c>
     </row>
     <row r="65" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E65" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F65" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G65" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H65" t="str">
-        <f>E65&amp;F65&amp;B65&amp;C65&amp;G65&amp;B65&amp;C65</f>
+        <f t="shared" si="1"/>
         <v>php artisan make:migration create__table --create=</v>
       </c>
     </row>
     <row r="66" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E66" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F66" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G66" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H66" t="str">
-        <f>E66&amp;F66&amp;B66&amp;C66&amp;G66&amp;B66&amp;C66</f>
+        <f t="shared" ref="H66:H97" si="2">E66&amp;F66&amp;B66&amp;C66&amp;G66&amp;B66&amp;C66</f>
         <v>php artisan make:migration create__table --create=</v>
       </c>
     </row>
